--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/55/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/55/FD_Curve.xlsx
@@ -510,10 +510,10 @@
         <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>5.63424</v>
+        <v>5.632779999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>5634.24</v>
+        <v>5632.78</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>6.667590000000001</v>
+        <v>6.38593</v>
       </c>
       <c r="C8" t="n">
-        <v>6667.59</v>
+        <v>6385.93</v>
       </c>
     </row>
     <row r="9">
@@ -532,1033 +532,1033 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>7.86267</v>
+        <v>6.86178</v>
       </c>
       <c r="C9" t="n">
-        <v>7862.67</v>
+        <v>6861.78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247923</v>
+        <v>0.247965</v>
       </c>
       <c r="B10" t="n">
-        <v>8.920579999999999</v>
+        <v>7.284470000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>8920.58</v>
+        <v>7284.47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278848</v>
+        <v>0.278891</v>
       </c>
       <c r="B11" t="n">
-        <v>10.0216</v>
+        <v>7.5994</v>
       </c>
       <c r="C11" t="n">
-        <v>10021.6</v>
+        <v>7599.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309778</v>
+        <v>0.309816</v>
       </c>
       <c r="B12" t="n">
-        <v>11.1417</v>
+        <v>7.82323</v>
       </c>
       <c r="C12" t="n">
-        <v>11141.7</v>
+        <v>7823.23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340703</v>
+        <v>0.340741</v>
       </c>
       <c r="B13" t="n">
-        <v>11.8168</v>
+        <v>8.01746</v>
       </c>
       <c r="C13" t="n">
-        <v>11816.8</v>
+        <v>8017.46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371628</v>
+        <v>0.371667</v>
       </c>
       <c r="B14" t="n">
-        <v>12.3702</v>
+        <v>8.132</v>
       </c>
       <c r="C14" t="n">
-        <v>12370.2</v>
+        <v>8132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402553</v>
+        <v>0.402592</v>
       </c>
       <c r="B15" t="n">
-        <v>12.8138</v>
+        <v>8.208030000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>12813.8</v>
+        <v>8208.030000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433478</v>
+        <v>0.433517</v>
       </c>
       <c r="B16" t="n">
-        <v>12.8679</v>
+        <v>8.251790000000002</v>
       </c>
       <c r="C16" t="n">
-        <v>12867.9</v>
+        <v>8251.790000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464403</v>
+        <v>0.464442</v>
       </c>
       <c r="B17" t="n">
-        <v>12.877</v>
+        <v>8.27139</v>
       </c>
       <c r="C17" t="n">
-        <v>12877</v>
+        <v>8271.389999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495328</v>
+        <v>0.495367</v>
       </c>
       <c r="B18" t="n">
-        <v>12.865</v>
+        <v>8.284660000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>12865</v>
+        <v>8284.66</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526253</v>
+        <v>0.526292</v>
       </c>
       <c r="B19" t="n">
-        <v>12.8502</v>
+        <v>8.290840000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>12850.2</v>
+        <v>8290.84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557178</v>
+        <v>0.557217</v>
       </c>
       <c r="B20" t="n">
-        <v>12.8305</v>
+        <v>8.29518</v>
       </c>
       <c r="C20" t="n">
-        <v>12830.5</v>
+        <v>8295.18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588103</v>
+        <v>0.5881420000000001</v>
       </c>
       <c r="B21" t="n">
-        <v>12.8071</v>
+        <v>8.29782</v>
       </c>
       <c r="C21" t="n">
-        <v>12807.1</v>
+        <v>8297.82</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6191449999999999</v>
+        <v>0.619184</v>
       </c>
       <c r="B22" t="n">
-        <v>12.7786</v>
+        <v>8.29914</v>
       </c>
       <c r="C22" t="n">
-        <v>12778.6</v>
+        <v>8299.139999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650318</v>
+        <v>0.650356</v>
       </c>
       <c r="B23" t="n">
-        <v>12.7454</v>
+        <v>8.299370000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>12745.4</v>
+        <v>8299.370000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.68149</v>
+        <v>0.6815290000000001</v>
       </c>
       <c r="B24" t="n">
-        <v>12.7063</v>
+        <v>8.2986</v>
       </c>
       <c r="C24" t="n">
-        <v>12706.3</v>
+        <v>8298.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.7126670000000001</v>
+        <v>0.712706</v>
       </c>
       <c r="B25" t="n">
-        <v>12.6632</v>
+        <v>8.297000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>12663.2</v>
+        <v>8297</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7438399999999999</v>
+        <v>0.743878</v>
       </c>
       <c r="B26" t="n">
-        <v>12.6175</v>
+        <v>8.294499999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>12617.5</v>
+        <v>8294.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775017</v>
+        <v>0.775056</v>
       </c>
       <c r="B27" t="n">
-        <v>12.569</v>
+        <v>8.2913</v>
       </c>
       <c r="C27" t="n">
-        <v>12569</v>
+        <v>8291.299999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.80619</v>
+        <v>0.8062279999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>12.5182</v>
+        <v>8.287450000000002</v>
       </c>
       <c r="C28" t="n">
-        <v>12518.2</v>
+        <v>8287.450000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.8373620000000001</v>
+        <v>0.837401</v>
       </c>
       <c r="B29" t="n">
-        <v>12.4651</v>
+        <v>8.282969999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>12465.1</v>
+        <v>8282.969999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8685389999999999</v>
+        <v>0.868578</v>
       </c>
       <c r="B30" t="n">
-        <v>12.4099</v>
+        <v>8.277850000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>12409.9</v>
+        <v>8277.85</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899712</v>
+        <v>0.89975</v>
       </c>
       <c r="B31" t="n">
-        <v>12.3523</v>
+        <v>8.27216</v>
       </c>
       <c r="C31" t="n">
-        <v>12352.3</v>
+        <v>8272.16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930884</v>
+        <v>0.9309229999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>12.291</v>
+        <v>8.265879999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>12291</v>
+        <v>8265.879999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9620610000000001</v>
+        <v>0.9621</v>
       </c>
       <c r="B33" t="n">
-        <v>12.2268</v>
+        <v>8.259</v>
       </c>
       <c r="C33" t="n">
-        <v>12226.8</v>
+        <v>8259</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993234</v>
+        <v>0.993272</v>
       </c>
       <c r="B34" t="n">
-        <v>12.1594</v>
+        <v>8.25155</v>
       </c>
       <c r="C34" t="n">
-        <v>12159.4</v>
+        <v>8251.549999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02455</v>
+        <v>1.02458</v>
       </c>
       <c r="B35" t="n">
-        <v>12.0882</v>
+        <v>8.243590000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>12088.2</v>
+        <v>8243.59</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05593</v>
+        <v>1.05596</v>
       </c>
       <c r="B36" t="n">
-        <v>12.0139</v>
+        <v>8.235059999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>12013.9</v>
+        <v>8235.059999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08731</v>
+        <v>1.08734</v>
       </c>
       <c r="B37" t="n">
-        <v>11.9347</v>
+        <v>8.22601</v>
       </c>
       <c r="C37" t="n">
-        <v>11934.7</v>
+        <v>8226.01</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11869</v>
+        <v>1.1186</v>
       </c>
       <c r="B38" t="n">
-        <v>11.8502</v>
+        <v>8.216370000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>11850.2</v>
+        <v>8216.370000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.15007</v>
+        <v>1.14956</v>
       </c>
       <c r="B39" t="n">
-        <v>11.759</v>
+        <v>8.206</v>
       </c>
       <c r="C39" t="n">
-        <v>11759</v>
+        <v>8206</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18145</v>
+        <v>1.18053</v>
       </c>
       <c r="B40" t="n">
-        <v>11.6614</v>
+        <v>8.19482</v>
       </c>
       <c r="C40" t="n">
-        <v>11661.4</v>
+        <v>8194.82</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21256</v>
+        <v>1.2115</v>
       </c>
       <c r="B41" t="n">
-        <v>11.5572</v>
+        <v>8.182930000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>11557.2</v>
+        <v>8182.93</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24374</v>
+        <v>1.24247</v>
       </c>
       <c r="B42" t="n">
-        <v>11.4454</v>
+        <v>8.17032</v>
       </c>
       <c r="C42" t="n">
-        <v>11445.4</v>
+        <v>8170.32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27455</v>
+        <v>1.27343</v>
       </c>
       <c r="B43" t="n">
-        <v>11.3271</v>
+        <v>8.157120000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>11327.1</v>
+        <v>8157.12</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30573</v>
+        <v>1.3044</v>
       </c>
       <c r="B44" t="n">
-        <v>11.2001</v>
+        <v>8.143370000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>11200.1</v>
+        <v>8143.37</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33666</v>
+        <v>1.33506</v>
       </c>
       <c r="B45" t="n">
-        <v>11.0654</v>
+        <v>8.12889</v>
       </c>
       <c r="C45" t="n">
-        <v>11065.4</v>
+        <v>8128.89</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36769</v>
+        <v>1.36562</v>
       </c>
       <c r="B46" t="n">
-        <v>10.9236</v>
+        <v>8.113859999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>10923.6</v>
+        <v>8113.86</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39872</v>
+        <v>1.39618</v>
       </c>
       <c r="B47" t="n">
-        <v>10.7738</v>
+        <v>8.098229999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>10773.8</v>
+        <v>8098.23</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42961</v>
+        <v>1.42673</v>
       </c>
       <c r="B48" t="n">
-        <v>10.6178</v>
+        <v>8.081800000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>10617.8</v>
+        <v>8081.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.46075</v>
+        <v>1.45729</v>
       </c>
       <c r="B49" t="n">
-        <v>10.4534</v>
+        <v>8.064579999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>10453.4</v>
+        <v>8064.58</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49157</v>
+        <v>1.48784</v>
       </c>
       <c r="B50" t="n">
-        <v>10.2847</v>
+        <v>8.046569999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>10284.7</v>
+        <v>8046.57</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52275</v>
+        <v>1.51839</v>
       </c>
       <c r="B51" t="n">
-        <v>10.1075</v>
+        <v>8.02744</v>
       </c>
       <c r="C51" t="n">
-        <v>10107.5</v>
+        <v>8027.44</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55365</v>
+        <v>1.54895</v>
       </c>
       <c r="B52" t="n">
-        <v>9.926770000000001</v>
+        <v>8.00718</v>
       </c>
       <c r="C52" t="n">
-        <v>9926.77</v>
+        <v>8007.18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58474</v>
+        <v>1.5795</v>
       </c>
       <c r="B53" t="n">
-        <v>9.74108</v>
+        <v>7.985810000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>9741.08</v>
+        <v>7985.81</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61572</v>
+        <v>1.61006</v>
       </c>
       <c r="B54" t="n">
-        <v>9.55125</v>
+        <v>7.96335</v>
       </c>
       <c r="C54" t="n">
-        <v>9551.25</v>
+        <v>7963.35</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64666</v>
+        <v>1.64061</v>
       </c>
       <c r="B55" t="n">
-        <v>9.35901</v>
+        <v>7.93975</v>
       </c>
       <c r="C55" t="n">
-        <v>9359.01</v>
+        <v>7939.75</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67773</v>
+        <v>1.67117</v>
       </c>
       <c r="B56" t="n">
-        <v>9.16366</v>
+        <v>7.91504</v>
       </c>
       <c r="C56" t="n">
-        <v>9163.66</v>
+        <v>7915.04</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70871</v>
+        <v>1.70173</v>
       </c>
       <c r="B57" t="n">
-        <v>8.968959999999999</v>
+        <v>7.88908</v>
       </c>
       <c r="C57" t="n">
-        <v>8968.959999999999</v>
+        <v>7889.08</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73975</v>
+        <v>1.73228</v>
       </c>
       <c r="B58" t="n">
-        <v>8.77439</v>
+        <v>7.86183</v>
       </c>
       <c r="C58" t="n">
-        <v>8774.389999999999</v>
+        <v>7861.83</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.77077</v>
+        <v>1.76283</v>
       </c>
       <c r="B59" t="n">
-        <v>8.581299999999999</v>
+        <v>7.83326</v>
       </c>
       <c r="C59" t="n">
-        <v>8581.299999999999</v>
+        <v>7833.26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80161</v>
+        <v>1.79379</v>
       </c>
       <c r="B60" t="n">
-        <v>8.39114</v>
+        <v>7.803</v>
       </c>
       <c r="C60" t="n">
-        <v>8391.139999999999</v>
+        <v>7803</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83282</v>
+        <v>1.82489</v>
       </c>
       <c r="B61" t="n">
-        <v>8.20157</v>
+        <v>7.771020000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>8201.57</v>
+        <v>7771.02</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86337</v>
+        <v>1.85565</v>
       </c>
       <c r="B62" t="n">
-        <v>8.018610000000001</v>
+        <v>7.73773</v>
       </c>
       <c r="C62" t="n">
-        <v>8018.61</v>
+        <v>7737.73</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89483</v>
+        <v>1.88689</v>
       </c>
       <c r="B63" t="n">
-        <v>7.83432</v>
+        <v>7.70224</v>
       </c>
       <c r="C63" t="n">
-        <v>7834.32</v>
+        <v>7702.24</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92566</v>
+        <v>1.91763</v>
       </c>
       <c r="B64" t="n">
-        <v>7.65777</v>
+        <v>7.6655</v>
       </c>
       <c r="C64" t="n">
-        <v>7657.77</v>
+        <v>7665.5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95667</v>
+        <v>1.94887</v>
       </c>
       <c r="B65" t="n">
-        <v>7.48532</v>
+        <v>7.626180000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>7485.32</v>
+        <v>7626.18</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98791</v>
+        <v>1.97963</v>
       </c>
       <c r="B66" t="n">
-        <v>7.31789</v>
+        <v>7.585500000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>7317.89</v>
+        <v>7585.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01828</v>
+        <v>2.01089</v>
       </c>
       <c r="B67" t="n">
-        <v>7.16159</v>
+        <v>7.54188</v>
       </c>
       <c r="C67" t="n">
-        <v>7161.59</v>
+        <v>7541.88</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04954</v>
+        <v>2.04155</v>
       </c>
       <c r="B68" t="n">
-        <v>7.00893</v>
+        <v>7.49671</v>
       </c>
       <c r="C68" t="n">
-        <v>7008.93</v>
+        <v>7496.71</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.08091</v>
+        <v>2.07288</v>
       </c>
       <c r="B69" t="n">
-        <v>6.86505</v>
+        <v>7.44841</v>
       </c>
       <c r="C69" t="n">
-        <v>6865.05</v>
+        <v>7448.41</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11103</v>
+        <v>2.10385</v>
       </c>
       <c r="B70" t="n">
-        <v>6.73065</v>
+        <v>7.3981</v>
       </c>
       <c r="C70" t="n">
-        <v>6730.65</v>
+        <v>7398.1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14275</v>
+        <v>2.13473</v>
       </c>
       <c r="B71" t="n">
-        <v>6.59933</v>
+        <v>7.345149999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>6599.33</v>
+        <v>7345.15</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17373</v>
+        <v>2.16585</v>
       </c>
       <c r="B72" t="n">
-        <v>6.47585</v>
+        <v>7.289479999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>6475.85</v>
+        <v>7289.48</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20413</v>
+        <v>2.19679</v>
       </c>
       <c r="B73" t="n">
-        <v>6.360720000000001</v>
+        <v>7.231520000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>6360.72</v>
+        <v>7231.52</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23584</v>
+        <v>2.22783</v>
       </c>
       <c r="B74" t="n">
-        <v>6.24848</v>
+        <v>7.17024</v>
       </c>
       <c r="C74" t="n">
-        <v>6248.48</v>
+        <v>7170.24</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26672</v>
+        <v>2.25863</v>
       </c>
       <c r="B75" t="n">
-        <v>6.14204</v>
+        <v>7.10718</v>
       </c>
       <c r="C75" t="n">
-        <v>6142.04</v>
+        <v>7107.18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29744</v>
+        <v>2.28995</v>
       </c>
       <c r="B76" t="n">
-        <v>6.042470000000001</v>
+        <v>7.04034</v>
       </c>
       <c r="C76" t="n">
-        <v>6042.47</v>
+        <v>7040.34</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32835</v>
+        <v>2.32052</v>
       </c>
       <c r="B77" t="n">
-        <v>5.94853</v>
+        <v>6.97221</v>
       </c>
       <c r="C77" t="n">
-        <v>5948.53</v>
+        <v>6972.21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.3596</v>
+        <v>2.35197</v>
       </c>
       <c r="B78" t="n">
-        <v>5.85367</v>
+        <v>6.90038</v>
       </c>
       <c r="C78" t="n">
-        <v>5853.67</v>
+        <v>6900.38</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.39115</v>
+        <v>2.38259</v>
       </c>
       <c r="B79" t="n">
-        <v>5.77236</v>
+        <v>6.827500000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>5772.36</v>
+        <v>6827.5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42315</v>
+        <v>2.41386</v>
       </c>
       <c r="B80" t="n">
-        <v>5.69199</v>
+        <v>6.75108</v>
       </c>
       <c r="C80" t="n">
-        <v>5691.99</v>
+        <v>6751.08</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45515</v>
+        <v>2.44458</v>
       </c>
       <c r="B81" t="n">
-        <v>5.61362</v>
+        <v>6.67446</v>
       </c>
       <c r="C81" t="n">
-        <v>5613.62</v>
+        <v>6674.46</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48715</v>
+        <v>2.47436</v>
       </c>
       <c r="B82" t="n">
-        <v>5.53746</v>
+        <v>6.59741</v>
       </c>
       <c r="C82" t="n">
-        <v>5537.46</v>
+        <v>6597.41</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.5185</v>
+        <v>2.50638</v>
       </c>
       <c r="B83" t="n">
-        <v>5.481800000000001</v>
+        <v>6.513260000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>5481.8</v>
+        <v>6513.26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.55178</v>
+        <v>2.53767</v>
       </c>
       <c r="B84" t="n">
-        <v>5.46291</v>
+        <v>6.43019</v>
       </c>
       <c r="C84" t="n">
-        <v>5462.91</v>
+        <v>6430.19</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.58411</v>
+        <v>2.56753</v>
       </c>
       <c r="B85" t="n">
-        <v>5.45545</v>
+        <v>6.347840000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>5455.45</v>
+        <v>6347.84</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.61483</v>
+        <v>2.598</v>
       </c>
       <c r="B86" t="n">
-        <v>5.43928</v>
+        <v>6.26449</v>
       </c>
       <c r="C86" t="n">
-        <v>5439.28</v>
+        <v>6264.49</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.64555</v>
+        <v>2.63001</v>
       </c>
       <c r="B87" t="n">
-        <v>5.42055</v>
+        <v>6.17359</v>
       </c>
       <c r="C87" t="n">
-        <v>5420.55</v>
+        <v>6173.59</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.67627</v>
+        <v>2.66201</v>
       </c>
       <c r="B88" t="n">
-        <v>5.40109</v>
+        <v>6.08419</v>
       </c>
       <c r="C88" t="n">
-        <v>5401.09</v>
+        <v>6084.19</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70699</v>
+        <v>2.69254</v>
       </c>
       <c r="B89" t="n">
-        <v>5.37934</v>
+        <v>5.9964</v>
       </c>
       <c r="C89" t="n">
-        <v>5379.34</v>
+        <v>5996.4</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73771</v>
+        <v>2.72294</v>
       </c>
       <c r="B90" t="n">
-        <v>5.35016</v>
+        <v>5.9105</v>
       </c>
       <c r="C90" t="n">
-        <v>5350.16</v>
+        <v>5910.5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76729</v>
+        <v>2.75242</v>
       </c>
       <c r="B91" t="n">
-        <v>5.32993</v>
+        <v>5.826350000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>5329.93</v>
+        <v>5826.35</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79545</v>
+        <v>2.7842</v>
       </c>
       <c r="B92" t="n">
-        <v>5.30162</v>
+        <v>5.73577</v>
       </c>
       <c r="C92" t="n">
-        <v>5301.62</v>
+        <v>5735.77</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82361</v>
+        <v>2.81685</v>
       </c>
       <c r="B93" t="n">
-        <v>5.276</v>
+        <v>5.64438</v>
       </c>
       <c r="C93" t="n">
-        <v>5276</v>
+        <v>5644.38</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85177</v>
+        <v>2.84794</v>
       </c>
       <c r="B94" t="n">
-        <v>5.249569999999999</v>
+        <v>5.55506</v>
       </c>
       <c r="C94" t="n">
-        <v>5249.57</v>
+        <v>5555.06</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88022</v>
+        <v>2.87902</v>
       </c>
       <c r="B95" t="n">
-        <v>5.22269</v>
+        <v>5.46794</v>
       </c>
       <c r="C95" t="n">
-        <v>5222.69</v>
+        <v>5467.94</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91542</v>
+        <v>2.90926</v>
       </c>
       <c r="B96" t="n">
-        <v>5.19054</v>
+        <v>5.38276</v>
       </c>
       <c r="C96" t="n">
-        <v>5190.54</v>
+        <v>5382.76</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.95062</v>
+        <v>2.93852</v>
       </c>
       <c r="B97" t="n">
-        <v>5.140350000000001</v>
+        <v>5.29987</v>
       </c>
       <c r="C97" t="n">
-        <v>5140.35</v>
+        <v>5299.87</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98458</v>
+        <v>2.96842</v>
       </c>
       <c r="B98" t="n">
-        <v>5.115790000000001</v>
+        <v>5.21726</v>
       </c>
       <c r="C98" t="n">
-        <v>5115.79</v>
+        <v>5217.26</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01658</v>
+        <v>3.00161</v>
       </c>
       <c r="B99" t="n">
-        <v>5.082380000000001</v>
+        <v>5.12518</v>
       </c>
       <c r="C99" t="n">
-        <v>5082.38</v>
+        <v>5125.18</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04858</v>
+        <v>3.03361</v>
       </c>
       <c r="B100" t="n">
-        <v>5.05309</v>
+        <v>5.03559</v>
       </c>
       <c r="C100" t="n">
-        <v>5053.09</v>
+        <v>5035.59</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.08058</v>
+        <v>3.06561</v>
       </c>
       <c r="B101" t="n">
-        <v>4.84476</v>
+        <v>4.94866</v>
       </c>
       <c r="C101" t="n">
-        <v>4844.76</v>
+        <v>4948.66</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.11258</v>
+        <v>3.09705</v>
       </c>
       <c r="B102" t="n">
-        <v>4.8668</v>
+        <v>4.86383</v>
       </c>
       <c r="C102" t="n">
-        <v>4866.8</v>
+        <v>4863.83</v>
       </c>
     </row>
   </sheetData>
